--- a/data/trans_camb/IP19C04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C04-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 1,81</t>
+          <t>-16,94; 1,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 0,12</t>
+          <t>-19,19; -0,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 6,19</t>
+          <t>-16,31; 4,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 17,71</t>
+          <t>-0,49; 17,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 16,68</t>
+          <t>-5,73; 16,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 3,61</t>
+          <t>-9,72; 3,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 8,24</t>
+          <t>-6,05; 8,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 3,78</t>
+          <t>-9,91; 4,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 1,54</t>
+          <t>-11,12; 2,0</t>
         </is>
       </c>
     </row>
@@ -791,22 +791,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-92,37; 68,15</t>
+          <t>-97,95; 66,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 83,78</t>
+          <t>-100,0; 121,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 382,83</t>
+          <t>-100,0; 174,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 997,29</t>
+          <t>-22,99; 1014,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,97; 154,48</t>
+          <t>-52,81; 174,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,89; 96,91</t>
+          <t>-86,58; 112,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-94,09; 53,22</t>
+          <t>-94,25; 75,88</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 3,84</t>
+          <t>-3,55; 3,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 1,13</t>
+          <t>-5,56; 1,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,45; -0,61</t>
+          <t>-6,44; -0,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 3,99</t>
+          <t>-3,72; 3,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 3,09</t>
+          <t>-3,78; 2,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 1,79</t>
+          <t>-4,68; 2,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,93</t>
+          <t>-2,5; 2,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 1,12</t>
+          <t>-3,86; 0,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; -0,38</t>
+          <t>-4,84; -0,06</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,61; 79,46</t>
+          <t>-43,55; 75,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-63,57; 31,29</t>
+          <t>-66,15; 33,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-75,73; -9,04</t>
+          <t>-75,02; 0,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,37; 96,24</t>
+          <t>-47,84; 91,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,98; 67,02</t>
+          <t>-46,9; 73,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,82; 48,91</t>
+          <t>-59,21; 49,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,03; 57,87</t>
+          <t>-32,24; 55,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,99; 22,36</t>
+          <t>-49,05; 19,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,08; -8,0</t>
+          <t>-60,15; 0,12</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 2,63</t>
+          <t>-7,7; 2,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 1,81</t>
+          <t>-8,55; 2,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 1,04</t>
+          <t>-9,21; 1,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 0,98</t>
+          <t>-8,9; 0,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 3,3</t>
+          <t>-7,35; 3,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 4,41</t>
+          <t>-6,28; 4,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 0,55</t>
+          <t>-6,93; 0,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 0,98</t>
+          <t>-6,67; 1,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 1,26</t>
+          <t>-6,32; 1,24</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-88,48; 149,73</t>
+          <t>-85,58; 156,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 147,84</t>
+          <t>-89,98; 209,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-91,53; 64,11</t>
+          <t>-92,51; 94,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 133,46</t>
+          <t>-100,0; 116,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-89,67; 239,73</t>
+          <t>-85,99; 193,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-73,98; 192,33</t>
+          <t>-75,31; 244,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-85,18; 23,17</t>
+          <t>-85,54; 25,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-80,29; 36,96</t>
+          <t>-83,42; 52,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-76,04; 50,4</t>
+          <t>-76,76; 45,18</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 1,62</t>
+          <t>-4,45; 1,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -0,54</t>
+          <t>-5,98; -0,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,78; -1,37</t>
+          <t>-6,59; -1,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 3,18</t>
+          <t>-2,19; 3,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 2,07</t>
+          <t>-3,23; 2,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,29</t>
+          <t>-4,03; 1,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,66</t>
+          <t>-2,6; 1,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,12</t>
+          <t>-3,83; -0,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; -0,89</t>
+          <t>-4,41; -0,79</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,34; 32,26</t>
+          <t>-50,45; 36,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-67,59; -8,3</t>
+          <t>-68,76; -6,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-73,84; -21,05</t>
+          <t>-74,36; -19,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 72,02</t>
+          <t>-31,21; 77,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-46,74; 48,99</t>
+          <t>-44,75; 47,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-53,76; 28,8</t>
+          <t>-54,77; 28,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,49; 31,84</t>
+          <t>-34,64; 27,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-51,87; 2,69</t>
+          <t>-50,9; -1,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-60,41; -15,47</t>
+          <t>-59,31; -13,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C04-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>8,12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-3,04</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-6,64</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-8,69</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,46</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,12</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,92</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>-6,48</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>-4,72</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 1,76</t>
+          <t>-1,23; 18,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,19; -0,07</t>
+          <t>-5,65; 15,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 4,94</t>
+          <t>-9,6; 4,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 17,94</t>
+          <t>-17,32; 1,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 16,33</t>
+          <t>-17,43; 1,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 3,88</t>
+          <t>-16,28; 5,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 8,33</t>
+          <t>-5,72; 7,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 4,1</t>
+          <t>-8,93; 4,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 2,0</t>
+          <t>-11,18; 1,85</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>149,25%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>53,68%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-55,93%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-58,91%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-77,1%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-57,29%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>149,25%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>53,68%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-57,97%</t>
+          <t>-57,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-58,19%</t>
+          <t>-57,43%</t>
         </is>
       </c>
     </row>
@@ -791,22 +791,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-97,95; 66,34</t>
+          <t>-34,89; 825,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 121,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 174,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 1014,7</t>
+          <t>-100,0; 94,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,22 +816,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 314,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,81; 174,2</t>
+          <t>-50,44; 155,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,58; 112,55</t>
+          <t>-85,3; 111,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-94,25; 75,88</t>
+          <t>-94,28; 67,33</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-1,04</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,03</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-2,2</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,41</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-2,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 3,57</t>
+          <t>-3,35; 4,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 1,23</t>
+          <t>-4,26; 2,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; -0,24</t>
+          <t>-4,63; 2,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 3,94</t>
+          <t>-3,41; 4,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 2,98</t>
+          <t>-5,49; 1,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,07</t>
+          <t>-6,56; -0,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,99</t>
+          <t>-2,42; 3,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 0,95</t>
+          <t>-3,72; 1,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; -0,06</t>
+          <t>-4,66; 0,16</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,53%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-8,01%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-16,97%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,47%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-32,84%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-50,84%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,53%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-8,01%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,34%</t>
+          <t>-49,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-37,3%</t>
+          <t>-35,75%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,55; 75,19</t>
+          <t>-45,24; 100,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,15; 33,05</t>
+          <t>-52,23; 65,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-75,02; 0,97</t>
+          <t>-58,06; 75,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-47,84; 91,34</t>
+          <t>-41,2; 95,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 73,28</t>
+          <t>-65,43; 29,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,21; 49,67</t>
+          <t>-74,56; -0,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 55,89</t>
+          <t>-32,14; 64,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,05; 19,24</t>
+          <t>-48,22; 21,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-60,15; 0,12</t>
+          <t>-60,23; 4,35</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-3,56</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-2,53</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-3,24</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,39</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,56</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,8</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-2,24</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 2,83</t>
+          <t>-9,34; 0,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 2,3</t>
+          <t>-7,56; 3,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 1,3</t>
+          <t>-6,56; 4,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 0,82</t>
+          <t>-9,18; 2,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 3,32</t>
+          <t>-9,09; 1,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 4,18</t>
+          <t>-9,16; 1,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 0,36</t>
+          <t>-6,72; 0,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 1,27</t>
+          <t>-6,79; 1,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 1,24</t>
+          <t>-5,8; 1,43</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-66,73%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-33,87%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-17,49%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-42,87%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-54,77%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-57,31%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-66,73%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-33,87%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-18,51%</t>
+          <t>-55,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-40,76%</t>
+          <t>-39,92%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-85,58; 156,81</t>
+          <t>-100,0; 171,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-89,98; 209,87</t>
+          <t>-88,54; 185,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-92,51; 94,96</t>
+          <t>-78,2; 202,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 116,36</t>
+          <t>-93,4; 122,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,99; 193,14</t>
+          <t>-100,0; 155,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,31; 244,3</t>
+          <t>-90,57; 81,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-85,54; 25,3</t>
+          <t>-84,51; 18,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-83,42; 52,15</t>
+          <t>-83,19; 50,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-76,76; 45,18</t>
+          <t>-75,79; 48,42</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-1,35</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-3,16</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-3,92</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-2,59</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 1,79</t>
+          <t>-2,42; 3,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,98; -0,57</t>
+          <t>-3,16; 2,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,59; -1,32</t>
+          <t>-3,8; 2,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,45</t>
+          <t>-4,2; 1,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 2,1</t>
+          <t>-5,93; -0,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 1,35</t>
+          <t>-6,55; -1,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,56</t>
+          <t>-2,47; 1,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,83; -0,08</t>
+          <t>-4,08; 0,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; -0,79</t>
+          <t>-4,33; -0,66</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-9,68%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-19,74%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-19,07%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-44,67%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-55,4%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>7,35%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-9,68%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-22,34%</t>
+          <t>-54,51%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-41,33%</t>
+          <t>-40,08%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,45; 36,08</t>
+          <t>-33,59; 76,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,76; -6,54</t>
+          <t>-44,75; 51,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-74,36; -19,67</t>
+          <t>-52,89; 48,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,21; 77,66</t>
+          <t>-48,69; 29,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,75; 47,39</t>
+          <t>-69,79; -6,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,77; 28,67</t>
+          <t>-74,94; -23,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,64; 27,45</t>
+          <t>-32,88; 34,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-50,9; -1,38</t>
+          <t>-52,74; 1,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,31; -13,43</t>
+          <t>-58,68; -11,61</t>
         </is>
       </c>
     </row>
